--- a/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
+++ b/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-matching\src\Sfa.Tl.Matching.Application.IntegrationTests\QualificationRoutePathMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Downloads\TL_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0530BCA8-DCC7-4E53-979E-60157F0E3F71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43D1A-0CBF-4292-8B9B-3E3BFCBE162C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2445" windowWidth="18225" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4943" yWindow="907" windowWidth="18224" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Quals" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List of Quals'!$A$1:$AL$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List of Quals'!$A$3:$AL$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Science</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>LARS ID</t>
+  </si>
+  <si>
+    <t>Pathway Codes</t>
   </si>
   <si>
     <t>Short Title</t>
@@ -151,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +176,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -188,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -225,18 +234,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
@@ -253,6 +318,12 @@
       <alignment vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,15 +616,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L24" sqref="L24"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="A1:XFD1 A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.1328125" customWidth="1"/>
     <col min="2" max="2" width="96.46484375" customWidth="1"/>
@@ -584,153 +655,302 @@
     <col min="37" max="38" width="4.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" ht="15.4">
+      <c r="D1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>6</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7">
+        <v>7</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10</v>
+      </c>
+      <c r="O2" s="7">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7">
+        <v>13</v>
+      </c>
+      <c r="S2" s="7">
+        <v>15</v>
+      </c>
+      <c r="T2" s="7">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7">
+        <v>17</v>
+      </c>
+      <c r="V2" s="7">
+        <v>19</v>
+      </c>
+      <c r="W2" s="7">
+        <v>18</v>
+      </c>
+      <c r="X2" s="7">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>29</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>33</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>34</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" ht="222" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AI3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL3" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="4" spans="1:38">
+      <c r="A4">
         <v>60144567</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="2">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" s="2">
         <v>10</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O4" s="4">
         <v>12</v>
       </c>
-      <c r="Q2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AH2" s="4">
+      <c r="Q4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AH4" s="4">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="D2:AL2">
+  <autoFilter ref="A3:AL4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:AL1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:AL4">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>#REF!="Red"</formula>
     </cfRule>

--- a/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
+++ b/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Downloads\TL_TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-matching\src\Sfa.Tl.Matching.Application.IntegrationTests\QualificationRoutePathMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B43D1A-0CBF-4292-8B9B-3E3BFCBE162C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE018FA9-4D77-41F2-860C-614AE4496E59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4943" yWindow="907" windowWidth="18224" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Quals" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Science</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Short Title</t>
+  </si>
+  <si>
+    <t>L3 AGCE Art and Design</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L24" sqref="L24"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -924,6 +927,9 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>

--- a/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
+++ b/src/Sfa.Tl.Matching.Application.IntegrationTests/QualificationRoutePathMapping/RoutePathMapping-Simple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\esfa\tl-matching\src\Sfa.Tl.Matching.Application.IntegrationTests\QualificationRoutePathMapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE018FA9-4D77-41F2-860C-614AE4496E59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B7A329-BF37-4537-AAD9-24C4EE7B11E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2543" yWindow="2543" windowWidth="19125" windowHeight="12494" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Quals" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Science</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>L3 AGCE Art and Design</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Gatsby</t>
   </si>
 </sst>
 </file>
@@ -619,12 +625,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL4"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L24" sqref="L24"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -658,7 +664,7 @@
     <col min="37" max="38" width="4.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.4">
+    <row r="1" spans="1:39" ht="15.4">
       <c r="D1" s="14" t="s">
         <v>38</v>
       </c>
@@ -697,7 +703,7 @@
       <c r="AK1" s="15"/>
       <c r="AL1" s="15"/>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="D2" s="6">
         <v>2</v>
       </c>
@@ -804,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" ht="222" customHeight="1">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="222" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -919,8 +925,11 @@
       <c r="AL3" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="AM3" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>60144567</v>
       </c>
@@ -949,6 +958,9 @@
       <c r="AB4"/>
       <c r="AH4" s="4">
         <v>31</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
